--- a/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.77141632775934</v>
+        <v>0.8459148714576941</v>
       </c>
       <c r="C2">
-        <v>0.3424013202579772</v>
+        <v>0.1045220922067642</v>
       </c>
       <c r="D2">
-        <v>0.007903912039878946</v>
+        <v>0.1298503742565202</v>
       </c>
       <c r="E2">
-        <v>0.04799627418659647</v>
+        <v>0.09858257843566776</v>
       </c>
       <c r="F2">
-        <v>2.564917691935378</v>
+        <v>0.9304076359850839</v>
       </c>
       <c r="G2">
-        <v>0.0008242647808032339</v>
+        <v>0.0008260875932302372</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1104548883087801</v>
+        <v>0.1064941808734048</v>
       </c>
       <c r="K2">
-        <v>0.4671499400820593</v>
+        <v>0.8559509795910856</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4677417570220896</v>
+        <v>0.3057397906661379</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.831521850231098</v>
+        <v>2.307420750029735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.534577205117444</v>
+        <v>0.7346493471862061</v>
       </c>
       <c r="C3">
-        <v>0.2953020394683392</v>
+        <v>0.09387196010908383</v>
       </c>
       <c r="D3">
-        <v>0.007270855363492146</v>
+        <v>0.1154236422275403</v>
       </c>
       <c r="E3">
-        <v>0.04520051910620815</v>
+        <v>0.09088710477387352</v>
       </c>
       <c r="F3">
-        <v>2.379290893552763</v>
+        <v>0.9090220257732469</v>
       </c>
       <c r="G3">
-        <v>0.0008320489302118494</v>
+        <v>0.0008300876897114675</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1045157007620787</v>
+        <v>0.1015231259342428</v>
       </c>
       <c r="K3">
-        <v>0.4039930926955222</v>
+        <v>0.7447428126619684</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4082924584488197</v>
+        <v>0.2668659109299796</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.699232245844215</v>
+        <v>2.290465076590436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.39126859157318</v>
+        <v>0.6665226816311929</v>
       </c>
       <c r="C4">
-        <v>0.2667479341242824</v>
+        <v>0.08732425355366047</v>
       </c>
       <c r="D4">
-        <v>0.0068868984095527</v>
+        <v>0.1066446752534205</v>
       </c>
       <c r="E4">
-        <v>0.04354839078527561</v>
+        <v>0.08626848566953527</v>
       </c>
       <c r="F4">
-        <v>2.269597087228192</v>
+        <v>0.8974387116038471</v>
       </c>
       <c r="G4">
-        <v>0.0008369604260198299</v>
+        <v>0.0008326257266753847</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1010353605896981</v>
+        <v>0.09862430138366562</v>
       </c>
       <c r="K4">
-        <v>0.3657588215567102</v>
+        <v>0.6765646361225208</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3724041342606057</v>
+        <v>0.2431414923043036</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.621123098330841</v>
+        <v>2.284211492599809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.333331455253756</v>
+        <v>0.6387973477209812</v>
       </c>
       <c r="C5">
-        <v>0.2551895926239638</v>
+        <v>0.08465308080852196</v>
       </c>
       <c r="D5">
-        <v>0.006731635278809378</v>
+        <v>0.1030854632007987</v>
       </c>
       <c r="E5">
-        <v>0.04289031784392705</v>
+        <v>0.08441163397120732</v>
       </c>
       <c r="F5">
-        <v>2.2258803055594</v>
+        <v>0.8930914568588051</v>
       </c>
       <c r="G5">
-        <v>0.0008389964294596874</v>
+        <v>0.0008336809658597788</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09965583885506391</v>
+        <v>0.09747976193983021</v>
       </c>
       <c r="K5">
-        <v>0.3502964862532423</v>
+        <v>0.6487972122855439</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3579159324324266</v>
+        <v>0.2335053535330971</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.590008477484105</v>
+        <v>2.28266717114478</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.323737053485786</v>
+        <v>0.6341954880606409</v>
       </c>
       <c r="C6">
-        <v>0.2532746407296145</v>
+        <v>0.08420933545469467</v>
       </c>
       <c r="D6">
-        <v>0.006705927039631021</v>
+        <v>0.1024955180368465</v>
       </c>
       <c r="E6">
-        <v>0.04278193368565653</v>
+        <v>0.08410478941387112</v>
       </c>
       <c r="F6">
-        <v>2.218678049572247</v>
+        <v>0.8923916732531509</v>
       </c>
       <c r="G6">
-        <v>0.0008393366290600868</v>
+        <v>0.0008338574642985745</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09942902463064485</v>
+        <v>0.09729188030877367</v>
       </c>
       <c r="K6">
-        <v>0.3477356199331538</v>
+        <v>0.6441871096990468</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3555179340415364</v>
+        <v>0.2319070701412969</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.584883231027561</v>
+        <v>2.282470211105718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.390485446153292</v>
+        <v>0.6661486332161246</v>
       </c>
       <c r="C7">
-        <v>0.2665917575273227</v>
+        <v>0.08728824205735464</v>
       </c>
       <c r="D7">
-        <v>0.006884799588117829</v>
+        <v>0.1065966024850127</v>
       </c>
       <c r="E7">
-        <v>0.04353945561403805</v>
+        <v>0.08624334310468029</v>
       </c>
       <c r="F7">
-        <v>2.269003638909524</v>
+        <v>0.8973785932873497</v>
       </c>
       <c r="G7">
-        <v>0.0008369877428011075</v>
+        <v>0.0008326398725566096</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1010166029074639</v>
+        <v>0.09860871925022963</v>
       </c>
       <c r="K7">
-        <v>0.3655498348194115</v>
+        <v>0.6761901045725267</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3722082107460594</v>
+        <v>0.2430114132054513</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.620700665280438</v>
+        <v>2.284186653034681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.689272800007728</v>
+        <v>0.8075039782994509</v>
       </c>
       <c r="C8">
-        <v>0.3260768458602286</v>
+        <v>0.100851188103249</v>
       </c>
       <c r="D8">
-        <v>0.007684652692796945</v>
+        <v>0.1248586236948483</v>
       </c>
       <c r="E8">
-        <v>0.04701826966801725</v>
+        <v>0.09590616678565311</v>
       </c>
       <c r="F8">
-        <v>2.499967013941315</v>
+        <v>0.9227027418840805</v>
       </c>
       <c r="G8">
-        <v>0.0008269221957613811</v>
+        <v>0.0008274500364610192</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1083705997947675</v>
+        <v>0.1047471903972408</v>
       </c>
       <c r="K8">
-        <v>0.4452489129611834</v>
+        <v>0.8175782971509875</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.447105092522385</v>
+        <v>0.2923033123703007</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.785218586079807</v>
+        <v>2.300686080566237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.295377745018868</v>
+        <v>1.086762976652153</v>
       </c>
       <c r="C9">
-        <v>0.4463310052081226</v>
+        <v>0.1274207030599115</v>
       </c>
       <c r="D9">
-        <v>0.009290973870644592</v>
+        <v>0.1613763086485989</v>
       </c>
       <c r="E9">
-        <v>0.05440301655350055</v>
+        <v>0.1157713269176348</v>
       </c>
       <c r="F9">
-        <v>2.991438569813965</v>
+        <v>0.9854121328081362</v>
       </c>
       <c r="G9">
-        <v>0.0008081650128682767</v>
+        <v>0.0008179059859363874</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1242644372160981</v>
+        <v>0.1180895916478235</v>
       </c>
       <c r="K9">
-        <v>0.6067782835165687</v>
+        <v>1.09618058364444</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5997344243384788</v>
+        <v>0.3903309398801227</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.135960360319061</v>
+        <v>2.367999663372444</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758325851396592</v>
+        <v>1.29402095903697</v>
       </c>
       <c r="C10">
-        <v>0.5379865098152834</v>
+        <v>0.1469862634537407</v>
       </c>
       <c r="D10">
-        <v>0.01049548982897619</v>
+        <v>0.1887540098508822</v>
       </c>
       <c r="E10">
-        <v>0.06025097152202363</v>
+        <v>0.1310320826605285</v>
       </c>
       <c r="F10">
-        <v>3.383110025854165</v>
+        <v>1.040578546286596</v>
       </c>
       <c r="G10">
-        <v>0.0007948807560692957</v>
+        <v>0.0008112547324389276</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.137075618380365</v>
+        <v>0.1288176433821633</v>
       </c>
       <c r="K10">
-        <v>0.7300836869381229</v>
+        <v>1.302469181447179</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7167605481745838</v>
+        <v>0.4635187029836274</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.41603895456673</v>
+        <v>2.441680866849595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.974124790913663</v>
+        <v>1.38896022897589</v>
       </c>
       <c r="C11">
-        <v>0.5806852381344356</v>
+        <v>0.1559119299766394</v>
       </c>
       <c r="D11">
-        <v>0.01104933935092234</v>
+        <v>0.2013559496403587</v>
       </c>
       <c r="E11">
-        <v>0.06302314338345383</v>
+        <v>0.1381446640915804</v>
       </c>
       <c r="F11">
-        <v>3.56973300785728</v>
+        <v>1.067920975309576</v>
       </c>
       <c r="G11">
-        <v>0.0007889196711254455</v>
+        <v>0.000808301315605112</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1432099005456919</v>
+        <v>0.133929988562457</v>
       </c>
       <c r="K11">
-        <v>0.7875504680302612</v>
+        <v>1.396850903098567</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7714121403055572</v>
+        <v>0.4971470646031335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.549648541287425</v>
+        <v>2.481155421641745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.056719335103196</v>
+        <v>1.425023177521581</v>
       </c>
       <c r="C12">
-        <v>0.5970257491669315</v>
+        <v>0.1592967967052914</v>
       </c>
       <c r="D12">
-        <v>0.01125998904444003</v>
+        <v>0.2061516690100831</v>
       </c>
       <c r="E12">
-        <v>0.06409087826350657</v>
+        <v>0.1408647664715197</v>
       </c>
       <c r="F12">
-        <v>3.641788307396638</v>
+        <v>1.078622209927971</v>
       </c>
       <c r="G12">
-        <v>0.0007866717499365811</v>
+        <v>0.0008071928101892795</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1455825373191999</v>
+        <v>0.1359020332718472</v>
       </c>
       <c r="K12">
-        <v>0.8095441491802262</v>
+        <v>1.432685019938901</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7923442359806856</v>
+        <v>0.5099364455705455</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.601261382851192</v>
+        <v>2.497022347497079</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.038889942134404</v>
+        <v>1.417251131062983</v>
       </c>
       <c r="C13">
-        <v>0.593498435279912</v>
+        <v>0.1585675650374156</v>
       </c>
       <c r="D13">
-        <v>0.01121457965394868</v>
+        <v>0.2051177336757775</v>
       </c>
       <c r="E13">
-        <v>0.06386009072091525</v>
+        <v>0.1402777182485515</v>
       </c>
       <c r="F13">
-        <v>3.626205366890986</v>
+        <v>1.076301660541489</v>
       </c>
       <c r="G13">
-        <v>0.0007871555022678719</v>
+        <v>0.0008074311151874472</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1450692389225097</v>
+        <v>0.1354756664847372</v>
       </c>
       <c r="K13">
-        <v>0.8047964890708954</v>
+        <v>1.42496305910538</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7878250346805586</v>
+        <v>0.5071794599233712</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.590098191136278</v>
+        <v>2.4935632194547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.980901543094092</v>
+        <v>1.391924812207293</v>
       </c>
       <c r="C14">
-        <v>0.5820259787961106</v>
+        <v>0.1561902988260044</v>
       </c>
       <c r="D14">
-        <v>0.01106665073600865</v>
+        <v>0.201750008258017</v>
       </c>
       <c r="E14">
-        <v>0.06311061478720248</v>
+        <v>0.1383678997242619</v>
       </c>
       <c r="F14">
-        <v>3.57563222957657</v>
+        <v>1.068794268452507</v>
       </c>
       <c r="G14">
-        <v>0.0007887345592320183</v>
+        <v>0.0008082099229737553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1434040675550463</v>
+        <v>0.1340914897951535</v>
       </c>
       <c r="K14">
-        <v>0.7893550329615238</v>
+        <v>1.399797020474296</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.773129287740403</v>
+        <v>0.4981981100751796</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.553873584656984</v>
+        <v>2.482442017197997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.94550015186411</v>
+        <v>1.376426761294994</v>
       </c>
       <c r="C15">
-        <v>0.5750219547849724</v>
+        <v>0.1547348341720181</v>
       </c>
       <c r="D15">
-        <v>0.0109761621024127</v>
+        <v>0.1996903317338052</v>
       </c>
       <c r="E15">
-        <v>0.06265393944478959</v>
+        <v>0.1372016293061549</v>
       </c>
       <c r="F15">
-        <v>3.544840524884677</v>
+        <v>1.06424174224955</v>
       </c>
       <c r="G15">
-        <v>0.0007897029277361575</v>
+        <v>0.000808688237661781</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.14239075615194</v>
+        <v>0.1332484287650928</v>
       </c>
       <c r="K15">
-        <v>0.7799280426565929</v>
+        <v>1.384394812156785</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7641595996760344</v>
+        <v>0.492704156427024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.531821522167604</v>
+        <v>2.475751534007202</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744338157652919</v>
+        <v>1.287831098812177</v>
       </c>
       <c r="C16">
-        <v>0.5352184871225916</v>
+        <v>0.1464035647830713</v>
       </c>
       <c r="D16">
-        <v>0.01045941878601298</v>
+        <v>0.1879336167437913</v>
       </c>
       <c r="E16">
-        <v>0.06007221132439255</v>
+        <v>0.1305708736979163</v>
       </c>
       <c r="F16">
-        <v>3.37109788884112</v>
+        <v>1.038838893479337</v>
       </c>
       <c r="G16">
-        <v>0.0007952717798604958</v>
+        <v>0.0008114491572019228</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1366813626743308</v>
+        <v>0.1284884394407655</v>
       </c>
       <c r="K16">
-        <v>0.7263586186286801</v>
+        <v>1.296313333455316</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7132201693238756</v>
+        <v>0.4613283270839688</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.407442464155565</v>
+        <v>2.439226191099834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.622350444591007</v>
+        <v>1.233660460987352</v>
       </c>
       <c r="C17">
-        <v>0.5110757192969118</v>
+        <v>0.1412999367684193</v>
       </c>
       <c r="D17">
-        <v>0.01014396946064267</v>
+        <v>0.1807607353396463</v>
       </c>
       <c r="E17">
-        <v>0.05851833830332964</v>
+        <v>0.126548292239967</v>
       </c>
       <c r="F17">
-        <v>3.266791362935493</v>
+        <v>1.023847211029349</v>
       </c>
       <c r="G17">
-        <v>0.0007987074829703955</v>
+        <v>0.0008131610543486694</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1332611313975463</v>
+        <v>0.1256296722741368</v>
       </c>
       <c r="K17">
-        <v>0.6938708757027143</v>
+        <v>1.242427620640797</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6823554408852743</v>
+        <v>0.442170792008227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.332813112275844</v>
+        <v>2.418387584825894</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.55266739297349</v>
+        <v>1.202563646159746</v>
       </c>
       <c r="C18">
-        <v>0.4972821480544951</v>
+        <v>0.1383667531275421</v>
       </c>
       <c r="D18">
-        <v>0.009963082191109862</v>
+        <v>0.176648831191315</v>
       </c>
       <c r="E18">
-        <v>0.05763500015637035</v>
+        <v>0.1242505056072325</v>
       </c>
       <c r="F18">
-        <v>3.207581013015329</v>
+        <v>1.015434342010053</v>
       </c>
       <c r="G18">
-        <v>0.0008006914833859929</v>
+        <v>0.0008141525268149444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1313223699733044</v>
+        <v>0.124007056582073</v>
       </c>
       <c r="K18">
-        <v>0.6753118562116995</v>
+        <v>1.211483773591851</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6647339232312817</v>
+        <v>0.4311829632826019</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.290463501654031</v>
+        <v>2.406958453013516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.529152873532723</v>
+        <v>1.192044724467962</v>
       </c>
       <c r="C19">
-        <v>0.4926270362006449</v>
+        <v>0.1373739830388274</v>
       </c>
       <c r="D19">
-        <v>0.009901929718996172</v>
+        <v>0.1752589017802251</v>
       </c>
       <c r="E19">
-        <v>0.05733765088280762</v>
+        <v>0.1234751794793887</v>
       </c>
       <c r="F19">
-        <v>3.187663201259483</v>
+        <v>1.012621240285895</v>
       </c>
       <c r="G19">
-        <v>0.0008013646524609269</v>
+        <v>0.0008144894109395424</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1306706659979398</v>
+        <v>0.1234613086978626</v>
       </c>
       <c r="K19">
-        <v>0.66904892927802</v>
+        <v>1.201014797617717</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6587891441967528</v>
+        <v>0.4274678091260142</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.276219844337021</v>
+        <v>2.403182532550971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.635285578233834</v>
+        <v>1.239420615502127</v>
       </c>
       <c r="C20">
-        <v>0.5136359780518092</v>
+        <v>0.1418429808734061</v>
       </c>
       <c r="D20">
-        <v>0.01017749213839991</v>
+        <v>0.1815228611299489</v>
       </c>
       <c r="E20">
-        <v>0.05868266056073779</v>
+        <v>0.1269748421478241</v>
       </c>
       <c r="F20">
-        <v>3.277812661140757</v>
+        <v>1.02542120272868</v>
       </c>
       <c r="G20">
-        <v>0.0007983409477644658</v>
+        <v>0.0008129781161580758</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1336222359786348</v>
+        <v>0.1259317307986905</v>
       </c>
       <c r="K20">
-        <v>0.6973158628275513</v>
+        <v>1.248158580566837</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.685627252652381</v>
+        <v>0.4442068794420351</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.34069713540859</v>
+        <v>2.420547838920697</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.997909261910991</v>
+        <v>1.399360597100809</v>
       </c>
       <c r="C21">
-        <v>0.5853908319837728</v>
+        <v>0.1568884154707462</v>
       </c>
       <c r="D21">
-        <v>0.01111007544392351</v>
+        <v>0.2027385293373811</v>
       </c>
       <c r="E21">
-        <v>0.06333025013815075</v>
+        <v>0.1389281160154425</v>
       </c>
       <c r="F21">
-        <v>3.590447731311883</v>
+        <v>1.070989746209136</v>
       </c>
       <c r="G21">
-        <v>0.0007882705169654282</v>
+        <v>0.000807980904060036</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.143891770958426</v>
+        <v>0.134497053242832</v>
       </c>
       <c r="K21">
-        <v>0.7938839621903497</v>
+        <v>1.407186215250732</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7774390758248728</v>
+        <v>0.5008345987083374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.564484924305674</v>
+        <v>2.485683130450809</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.240083189544464</v>
+        <v>1.5045494425068</v>
       </c>
       <c r="C22">
-        <v>0.6333011728298743</v>
+        <v>0.1667507755183522</v>
       </c>
       <c r="D22">
-        <v>0.01172497748128976</v>
+        <v>0.216743214619882</v>
       </c>
       <c r="E22">
-        <v>0.06647352204668167</v>
+        <v>0.146897173457976</v>
       </c>
       <c r="F22">
-        <v>3.802941611335058</v>
+        <v>1.10280793989898</v>
       </c>
       <c r="G22">
-        <v>0.0007817424551638926</v>
+        <v>0.0008047723233289606</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1508964343310026</v>
+        <v>0.1403068795293834</v>
       </c>
       <c r="K22">
-        <v>0.8583698852427233</v>
+        <v>1.511675151348442</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8388416633659688</v>
+        <v>0.5381685347185012</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.716745859888846</v>
+        <v>2.533640291947421</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.110309958493872</v>
+        <v>1.448341907119698</v>
       </c>
       <c r="C23">
-        <v>0.6076278318552681</v>
+        <v>0.1614839135673947</v>
       </c>
       <c r="D23">
-        <v>0.01139626927435344</v>
+        <v>0.2092550922237706</v>
       </c>
       <c r="E23">
-        <v>0.06478553625840888</v>
+        <v>0.1426288059824472</v>
       </c>
       <c r="F23">
-        <v>3.688720348205777</v>
+        <v>1.085631193626384</v>
       </c>
       <c r="G23">
-        <v>0.0007852225663918753</v>
+        <v>0.0008064797271665715</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1471290578937285</v>
+        <v>0.1371857221371684</v>
       </c>
       <c r="K23">
-        <v>0.8238142994006097</v>
+        <v>1.455850974970843</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8059299593373126</v>
+        <v>0.5182106105053634</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.634886220802898</v>
+        <v>2.507529941121078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.629436214300654</v>
+        <v>1.236816305754274</v>
       </c>
       <c r="C24">
-        <v>0.5124782178636451</v>
+        <v>0.1415974677393592</v>
       </c>
       <c r="D24">
-        <v>0.01016233508067899</v>
+        <v>0.1811782672332924</v>
       </c>
       <c r="E24">
-        <v>0.05860833944677779</v>
+        <v>0.1267819528491181</v>
       </c>
       <c r="F24">
-        <v>3.272827587366976</v>
+        <v>1.024708961090013</v>
       </c>
       <c r="G24">
-        <v>0.0007985066308900124</v>
+        <v>0.0008130607997757357</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1334588951259192</v>
+        <v>0.1257951051592485</v>
       </c>
       <c r="K24">
-        <v>0.6957580172435769</v>
+        <v>1.245567503384422</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6841476858059039</v>
+        <v>0.4432862835533271</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.337131046704386</v>
+        <v>2.419569475642191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.128732661453398</v>
+        <v>1.010913056355065</v>
       </c>
       <c r="C25">
-        <v>0.4133063418035761</v>
+        <v>0.1202298014101189</v>
       </c>
       <c r="D25">
-        <v>0.008852289187064599</v>
+        <v>0.1514100199358666</v>
       </c>
       <c r="E25">
-        <v>0.05233729815184418</v>
+        <v>0.1102885099701005</v>
       </c>
       <c r="F25">
-        <v>2.853668290176103</v>
+        <v>0.9669374537758699</v>
       </c>
       <c r="G25">
-        <v>0.0008131441592131342</v>
+        <v>0.0008204226414373061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1197841602501839</v>
+        <v>0.1143275140576989</v>
       </c>
       <c r="K25">
-        <v>0.5623804880681149</v>
+        <v>1.020590291324282</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.557694242335451</v>
+        <v>0.3636324579426145</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.037556379455751</v>
+        <v>2.345757633967423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8459148714576941</v>
+        <v>0.8535949293627425</v>
       </c>
       <c r="C2">
-        <v>0.1045220922067642</v>
+        <v>0.1291068494564058</v>
       </c>
       <c r="D2">
-        <v>0.1298503742565202</v>
+        <v>0.1936228765317765</v>
       </c>
       <c r="E2">
-        <v>0.09858257843566776</v>
+        <v>0.1267873135393742</v>
       </c>
       <c r="F2">
-        <v>0.9304076359850839</v>
+        <v>0.5997523001744653</v>
       </c>
       <c r="G2">
-        <v>0.0008260875932302372</v>
+        <v>0.3188627296919364</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001680527313396962</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1064941808734048</v>
+        <v>0.3034522342998898</v>
       </c>
       <c r="K2">
-        <v>0.8559509795910856</v>
+        <v>0.2626751656116824</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1218819662244215</v>
       </c>
       <c r="M2">
-        <v>0.3057397906661379</v>
+        <v>0.9198268978432225</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.307420750029735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3288337672108881</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.25859455533562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7346493471862061</v>
+        <v>0.746427964542022</v>
       </c>
       <c r="C3">
-        <v>0.09387196010908383</v>
+        <v>0.1149460048569608</v>
       </c>
       <c r="D3">
-        <v>0.1154236422275403</v>
+        <v>0.1732196389290408</v>
       </c>
       <c r="E3">
-        <v>0.09088710477387352</v>
+        <v>0.1156019489530529</v>
       </c>
       <c r="F3">
-        <v>0.9090220257732469</v>
+        <v>0.5851131586467275</v>
       </c>
       <c r="G3">
-        <v>0.0008300876897114675</v>
+        <v>0.3158118917087975</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002864762621917594</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1015231259342428</v>
+        <v>0.3066249092303082</v>
       </c>
       <c r="K3">
-        <v>0.7447428126619684</v>
+        <v>0.2697397218651769</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.112946704827074</v>
       </c>
       <c r="M3">
-        <v>0.2668659109299796</v>
+        <v>0.8066100816671451</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.290465076590436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2868744812363317</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.258481776190166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6665226816311929</v>
+        <v>0.6805030974488773</v>
       </c>
       <c r="C4">
-        <v>0.08732425355366047</v>
+        <v>0.1062347478827235</v>
       </c>
       <c r="D4">
-        <v>0.1066446752534205</v>
+        <v>0.1607069145347282</v>
       </c>
       <c r="E4">
-        <v>0.08626848566953527</v>
+        <v>0.1087266407014695</v>
       </c>
       <c r="F4">
-        <v>0.8974387116038471</v>
+        <v>0.576802485944107</v>
       </c>
       <c r="G4">
-        <v>0.0008326257266753847</v>
+        <v>0.3144882284993855</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003782381975897919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09862430138366562</v>
+        <v>0.3089280796153844</v>
       </c>
       <c r="K4">
-        <v>0.6765646361225208</v>
+        <v>0.2745121410223916</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1074329020283855</v>
       </c>
       <c r="M4">
-        <v>0.2431414923043036</v>
+        <v>0.736947779717994</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.284211492599809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2610961175583135</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.260313828248769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6387973477209812</v>
+        <v>0.6536030575196321</v>
       </c>
       <c r="C5">
-        <v>0.08465308080852196</v>
+        <v>0.1026802678391903</v>
       </c>
       <c r="D5">
-        <v>0.1030854632007987</v>
+        <v>0.1556106977835725</v>
       </c>
       <c r="E5">
-        <v>0.08441163397120732</v>
+        <v>0.1059223350970271</v>
       </c>
       <c r="F5">
-        <v>0.8930914568588051</v>
+        <v>0.5735803684686971</v>
       </c>
       <c r="G5">
-        <v>0.0008336809658597788</v>
+        <v>0.3140818587614618</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004202209285361802</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09747976193983021</v>
+        <v>0.3099537122239937</v>
       </c>
       <c r="K5">
-        <v>0.6487972122855439</v>
+        <v>0.2765631965704642</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1051783501501511</v>
       </c>
       <c r="M5">
-        <v>0.2335053535330971</v>
+        <v>0.7085189124817646</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.28266717114478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2505856244782123</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.261522886817488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6341954880606409</v>
+        <v>0.6491340945003401</v>
       </c>
       <c r="C6">
-        <v>0.08420933545469467</v>
+        <v>0.102089760851257</v>
       </c>
       <c r="D6">
-        <v>0.1024955180368465</v>
+        <v>0.1547646186547809</v>
       </c>
       <c r="E6">
-        <v>0.08410478941387112</v>
+        <v>0.1054565079759335</v>
       </c>
       <c r="F6">
-        <v>0.8923916732531509</v>
+        <v>0.5730551084337776</v>
       </c>
       <c r="G6">
-        <v>0.0008338574642985745</v>
+        <v>0.31402226901821</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004274635215323841</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09729188030877367</v>
+        <v>0.3101292130359568</v>
       </c>
       <c r="K6">
-        <v>0.6441871096990468</v>
+        <v>0.2769101027275056</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1048035021610332</v>
       </c>
       <c r="M6">
-        <v>0.2319070701412969</v>
+        <v>0.7037957375457182</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.282470211105718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2488399767198359</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.261751137131881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6661486332161246</v>
+        <v>0.6801404613550233</v>
       </c>
       <c r="C7">
-        <v>0.08728824205735464</v>
+        <v>0.1061868299885873</v>
       </c>
       <c r="D7">
-        <v>0.1065966024850127</v>
+        <v>0.1606381749626991</v>
       </c>
       <c r="E7">
-        <v>0.08624334310468029</v>
+        <v>0.1086888321178527</v>
       </c>
       <c r="F7">
-        <v>0.8973785932873497</v>
+        <v>0.5767583727183094</v>
       </c>
       <c r="G7">
-        <v>0.0008326398725566096</v>
+        <v>0.3144822160849543</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003787860722124059</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09860871925022963</v>
+        <v>0.3089415619891014</v>
       </c>
       <c r="K7">
-        <v>0.6761901045725267</v>
+        <v>0.2745393760211705</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1074025281825755</v>
       </c>
       <c r="M7">
-        <v>0.2430114132054513</v>
+        <v>0.7365645488457346</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.284186653034681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2609543943323089</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.260328281673637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8075039782994509</v>
+        <v>0.8166669823453958</v>
       </c>
       <c r="C8">
-        <v>0.100851188103249</v>
+        <v>0.1242273245615593</v>
       </c>
       <c r="D8">
-        <v>0.1248586236948483</v>
+        <v>0.1865841535748984</v>
       </c>
       <c r="E8">
-        <v>0.09590616678565311</v>
+        <v>0.1229317199379061</v>
       </c>
       <c r="F8">
-        <v>0.9227027418840805</v>
+        <v>0.5945604234528332</v>
       </c>
       <c r="G8">
-        <v>0.0008274500364610192</v>
+        <v>0.3176935743605682</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002048086450724851</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1047471903972408</v>
+        <v>0.3044710969091398</v>
       </c>
       <c r="K8">
-        <v>0.8175782971509875</v>
+        <v>0.2650189145941351</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1188063600025444</v>
       </c>
       <c r="M8">
-        <v>0.2923033123703007</v>
+        <v>0.8808176537077941</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.300686080566237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3143682447655536</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.258151476525811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.086762976652153</v>
+        <v>1.083616334833977</v>
       </c>
       <c r="C9">
-        <v>0.1274207030599115</v>
+        <v>0.1594973639929549</v>
       </c>
       <c r="D9">
-        <v>0.1613763086485989</v>
+        <v>0.237629673950849</v>
       </c>
       <c r="E9">
-        <v>0.1157713269176348</v>
+        <v>0.150836490683794</v>
       </c>
       <c r="F9">
-        <v>0.9854121328081362</v>
+        <v>0.6351267386531703</v>
       </c>
       <c r="G9">
-        <v>0.0008179059859363874</v>
+        <v>0.3285938907520887</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0002411280002878602</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1180895916478235</v>
+        <v>0.2986268998611337</v>
       </c>
       <c r="K9">
-        <v>1.09618058364444</v>
+        <v>0.2499417411065359</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1409851236367388</v>
       </c>
       <c r="M9">
-        <v>0.3903309398801227</v>
+        <v>1.162741908482985</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.367999663372444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4190821533555962</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.269701778780615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.29402095903697</v>
+        <v>1.282196969054553</v>
       </c>
       <c r="C10">
-        <v>0.1469862634537407</v>
+        <v>0.1850663329798579</v>
       </c>
       <c r="D10">
-        <v>0.1887540098508822</v>
+        <v>0.2696517987879332</v>
       </c>
       <c r="E10">
-        <v>0.1310320826605285</v>
+        <v>0.1647942306919177</v>
       </c>
       <c r="F10">
-        <v>1.040578546286596</v>
+        <v>0.6589136117907017</v>
       </c>
       <c r="G10">
-        <v>0.0008112547324389276</v>
+        <v>0.3346543638372879</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002014786836435078</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1288176433821633</v>
+        <v>0.2936785977965073</v>
       </c>
       <c r="K10">
-        <v>1.302469181447179</v>
+        <v>0.2386368713614786</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1496119240248035</v>
       </c>
       <c r="M10">
-        <v>0.4635187029836274</v>
+        <v>1.37130317105715</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.441680866849595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4875374070088156</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.272648785583925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.38896022897589</v>
+        <v>1.3960257386764</v>
       </c>
       <c r="C11">
-        <v>0.1559119299766394</v>
+        <v>0.1939731496361077</v>
       </c>
       <c r="D11">
-        <v>0.2013559496403587</v>
+        <v>0.2367684315631209</v>
       </c>
       <c r="E11">
-        <v>0.1381446640915804</v>
+        <v>0.1198999597986372</v>
       </c>
       <c r="F11">
-        <v>1.067920975309576</v>
+        <v>0.5876124277124504</v>
       </c>
       <c r="G11">
-        <v>0.000808301315605112</v>
+        <v>0.2953133929976559</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0187602841696588</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.133929988562457</v>
+        <v>0.2700561726381281</v>
       </c>
       <c r="K11">
-        <v>1.396850903098567</v>
+        <v>0.2124429837405479</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09948121039014524</v>
       </c>
       <c r="M11">
-        <v>0.4971470646031335</v>
+        <v>1.481455212184841</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.481155421641745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4456161168308626</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.139955235738995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.425023177521581</v>
+        <v>1.45123544524796</v>
       </c>
       <c r="C12">
-        <v>0.1592967967052914</v>
+        <v>0.1960912016535872</v>
       </c>
       <c r="D12">
-        <v>0.2061516690100831</v>
+        <v>0.2043117079146128</v>
       </c>
       <c r="E12">
-        <v>0.1408647664715197</v>
+        <v>0.08692736304745452</v>
       </c>
       <c r="F12">
-        <v>1.078622209927971</v>
+        <v>0.525426202725086</v>
       </c>
       <c r="G12">
-        <v>0.0008071928101892795</v>
+        <v>0.262385070889799</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05741944758960926</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1359020332718472</v>
+        <v>0.2517576124815903</v>
       </c>
       <c r="K12">
-        <v>1.432685019938901</v>
+        <v>0.1939499911368383</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07154116930217747</v>
       </c>
       <c r="M12">
-        <v>0.5099364455705455</v>
+        <v>1.531170591093996</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.497022347497079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3977740540054384</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.031885762557224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.417251131062983</v>
+        <v>1.463967373291894</v>
       </c>
       <c r="C13">
-        <v>0.1585675650374156</v>
+        <v>0.1930752440339063</v>
       </c>
       <c r="D13">
-        <v>0.2051177336757775</v>
+        <v>0.1704870698242757</v>
       </c>
       <c r="E13">
-        <v>0.1402777182485515</v>
+        <v>0.06127333584130668</v>
       </c>
       <c r="F13">
-        <v>1.076301660541489</v>
+        <v>0.4665283725777485</v>
       </c>
       <c r="G13">
-        <v>0.0008074311151874472</v>
+        <v>0.2322818576561758</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131590212841758</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1354756664847372</v>
+        <v>0.2363494784504283</v>
       </c>
       <c r="K13">
-        <v>1.42496305910538</v>
+        <v>0.1800682885054385</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05887139965249111</v>
       </c>
       <c r="M13">
-        <v>0.5071794599233712</v>
+        <v>1.536739612466533</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.4935632194547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3429637319734482</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9357688699901701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.391924812207293</v>
+        <v>1.453594745094108</v>
       </c>
       <c r="C14">
-        <v>0.1561902988260044</v>
+        <v>0.1886491037663944</v>
       </c>
       <c r="D14">
-        <v>0.201750008258017</v>
+        <v>0.146691539884003</v>
       </c>
       <c r="E14">
-        <v>0.1383678997242619</v>
+        <v>0.04779054882013867</v>
       </c>
       <c r="F14">
-        <v>1.068794268452507</v>
+        <v>0.4275142920228348</v>
       </c>
       <c r="G14">
-        <v>0.0008082099229737553</v>
+        <v>0.2128512758856971</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625135659205199</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1340914897951535</v>
+        <v>0.2270193536096059</v>
       </c>
       <c r="K14">
-        <v>1.399797020474296</v>
+        <v>0.1726372295036285</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05900990106579584</v>
       </c>
       <c r="M14">
-        <v>0.4981981100751796</v>
+        <v>1.520608643316507</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.482442017197997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3021104024625743</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8749742362778221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.376426761294994</v>
+        <v>1.441809927260266</v>
       </c>
       <c r="C15">
-        <v>0.1547348341720181</v>
+        <v>0.1864784140483238</v>
       </c>
       <c r="D15">
-        <v>0.1996903317338052</v>
+        <v>0.1403955344135284</v>
       </c>
       <c r="E15">
-        <v>0.1372016293061549</v>
+        <v>0.04506939062813053</v>
       </c>
       <c r="F15">
-        <v>1.06424174224955</v>
+        <v>0.4183693987245718</v>
       </c>
       <c r="G15">
-        <v>0.000808688237661781</v>
+        <v>0.208530761884866</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750302541603475</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1332484287650928</v>
+        <v>0.2252866441115629</v>
       </c>
       <c r="K15">
-        <v>1.384394812156785</v>
+        <v>0.1716380888911146</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06016441797444827</v>
       </c>
       <c r="M15">
-        <v>0.492704156427024</v>
+        <v>1.507116644162608</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.475751534007202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2905218086486769</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8621508217312481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.287831098812177</v>
+        <v>1.352725447812929</v>
       </c>
       <c r="C16">
-        <v>0.1464035647830713</v>
+        <v>0.1760967423985988</v>
       </c>
       <c r="D16">
-        <v>0.1879336167437913</v>
+        <v>0.1344133165043644</v>
       </c>
       <c r="E16">
-        <v>0.1305708736979163</v>
+        <v>0.04495565109691047</v>
       </c>
       <c r="F16">
-        <v>1.038838893479337</v>
+        <v>0.4202988125783307</v>
       </c>
       <c r="G16">
-        <v>0.0008114491572019228</v>
+        <v>0.2117417345515804</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623566586430343</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1284884394407655</v>
+        <v>0.2302441968348177</v>
       </c>
       <c r="K16">
-        <v>1.296313333455316</v>
+        <v>0.1787515017711563</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05924407602195281</v>
       </c>
       <c r="M16">
-        <v>0.4613283270839688</v>
+        <v>1.415397607866197</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.439226191099834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2738535494936229</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8791477167505803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.233660460987352</v>
+        <v>1.29013658349632</v>
       </c>
       <c r="C17">
-        <v>0.1412999367684193</v>
+        <v>0.1704985011553077</v>
       </c>
       <c r="D17">
-        <v>0.1807607353396463</v>
+        <v>0.1421191112362408</v>
       </c>
       <c r="E17">
-        <v>0.126548292239967</v>
+        <v>0.05121801979001184</v>
       </c>
       <c r="F17">
-        <v>1.023847211029349</v>
+        <v>0.4422663900371262</v>
       </c>
       <c r="G17">
-        <v>0.0008131610543486694</v>
+        <v>0.2244890391723402</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1246322417963626</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1256296722741368</v>
+        <v>0.2390317315752668</v>
       </c>
       <c r="K17">
-        <v>1.242427620640797</v>
+        <v>0.1881870176483051</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05701727159266667</v>
       </c>
       <c r="M17">
-        <v>0.442170792008227</v>
+        <v>1.353837340988349</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.418387584825894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2822943257798443</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.924460653761173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.202563646159746</v>
+        <v>1.243464548521786</v>
       </c>
       <c r="C18">
-        <v>0.1383667531275421</v>
+        <v>0.1683729484023502</v>
       </c>
       <c r="D18">
-        <v>0.176648831191315</v>
+        <v>0.1636500266500178</v>
       </c>
       <c r="E18">
-        <v>0.1242505056072325</v>
+        <v>0.06761887196707406</v>
       </c>
       <c r="F18">
-        <v>1.015434342010053</v>
+        <v>0.4856603514434283</v>
       </c>
       <c r="G18">
-        <v>0.0008141525268149444</v>
+        <v>0.2477250479759903</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07180381609059339</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.124007056582073</v>
+        <v>0.2524430237142994</v>
       </c>
       <c r="K18">
-        <v>1.211483773591851</v>
+        <v>0.2013059130938366</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06129226764565843</v>
       </c>
       <c r="M18">
-        <v>0.4311829632826019</v>
+        <v>1.311364371039105</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.406958453013516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3145458785551369</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.00175024930671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.192044724467962</v>
+        <v>1.213350067868447</v>
       </c>
       <c r="C19">
-        <v>0.1373739830388274</v>
+        <v>0.1692113124271231</v>
       </c>
       <c r="D19">
-        <v>0.1752589017802251</v>
+        <v>0.1966903480394961</v>
       </c>
       <c r="E19">
-        <v>0.1234751794793887</v>
+        <v>0.0969743172083426</v>
       </c>
       <c r="F19">
-        <v>1.012621240285895</v>
+        <v>0.5460958808659342</v>
       </c>
       <c r="G19">
-        <v>0.0008144894109395424</v>
+        <v>0.2792383901101445</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02646396556396269</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1234613086978626</v>
+        <v>0.269231085166453</v>
       </c>
       <c r="K19">
-        <v>1.201014797617717</v>
+        <v>0.2174873254087881</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08223174072681516</v>
       </c>
       <c r="M19">
-        <v>0.4274678091260142</v>
+        <v>1.287583560913816</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.403182532550971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3658291683185979</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.103711718843442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.239420615502127</v>
+        <v>1.230157741505451</v>
       </c>
       <c r="C20">
-        <v>0.1418429808734061</v>
+        <v>0.1783405780510208</v>
       </c>
       <c r="D20">
-        <v>0.1815228611299489</v>
+        <v>0.2610003197916342</v>
       </c>
       <c r="E20">
-        <v>0.1269748421478241</v>
+        <v>0.1608503867272475</v>
       </c>
       <c r="F20">
-        <v>1.02542120272868</v>
+        <v>0.6519773254285042</v>
       </c>
       <c r="G20">
-        <v>0.0008129781161580758</v>
+        <v>0.3326173509450356</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001198984257895219</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1259317307986905</v>
+        <v>0.2947289046387667</v>
       </c>
       <c r="K20">
-        <v>1.248158580566837</v>
+        <v>0.2413175544179005</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1470214135650991</v>
       </c>
       <c r="M20">
-        <v>0.4442068794420351</v>
+        <v>1.316613229379328</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.420547838920697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4692057362260869</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.270410797246171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.399360597100809</v>
+        <v>1.378539913090862</v>
       </c>
       <c r="C21">
-        <v>0.1568884154707462</v>
+        <v>0.1984478325570365</v>
       </c>
       <c r="D21">
-        <v>0.2027385293373811</v>
+        <v>0.2943810870610122</v>
       </c>
       <c r="E21">
-        <v>0.1389281160154425</v>
+        <v>0.181758895208759</v>
       </c>
       <c r="F21">
-        <v>1.070989746209136</v>
+        <v>0.6868353100522242</v>
       </c>
       <c r="G21">
-        <v>0.000807980904060036</v>
+        <v>0.3462724325292825</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002275904339432699</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.134497053242832</v>
+        <v>0.2955950498168605</v>
       </c>
       <c r="K21">
-        <v>1.407186215250732</v>
+        <v>0.2375284042788657</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1654081916816708</v>
       </c>
       <c r="M21">
-        <v>0.5008345987083374</v>
+        <v>1.474046306505159</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.485683130450809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5350891394489707</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.301521494091787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.5045494425068</v>
+        <v>1.476919721354648</v>
       </c>
       <c r="C22">
-        <v>0.1667507755183522</v>
+        <v>0.2114360819932557</v>
       </c>
       <c r="D22">
-        <v>0.216743214619882</v>
+        <v>0.3133776200965599</v>
       </c>
       <c r="E22">
-        <v>0.146897173457976</v>
+        <v>0.1920963280798205</v>
       </c>
       <c r="F22">
-        <v>1.10280793989898</v>
+        <v>0.7054231733394687</v>
       </c>
       <c r="G22">
-        <v>0.0008047723233289606</v>
+        <v>0.353283839706755</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.000620973526097357</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1403068795293834</v>
+        <v>0.2952423487174087</v>
       </c>
       <c r="K22">
-        <v>1.511675151348442</v>
+        <v>0.2342143920013164</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1735501704015832</v>
       </c>
       <c r="M22">
-        <v>0.5381685347185012</v>
+        <v>1.577858064904945</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.533640291947421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5738465112470763</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.315866629191305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.448341907119698</v>
+        <v>1.424403166085028</v>
       </c>
       <c r="C23">
-        <v>0.1614839135673947</v>
+        <v>0.204503086238617</v>
       </c>
       <c r="D23">
-        <v>0.2092550922237706</v>
+        <v>0.3032333375279421</v>
       </c>
       <c r="E23">
-        <v>0.1426288059824472</v>
+        <v>0.1865766564063946</v>
       </c>
       <c r="F23">
-        <v>1.085631193626384</v>
+        <v>0.6954235754790332</v>
       </c>
       <c r="G23">
-        <v>0.0008064797271665715</v>
+        <v>0.3494763248023318</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0003877184935303646</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1371857221371684</v>
+        <v>0.2953928649298234</v>
       </c>
       <c r="K23">
-        <v>1.455850974970843</v>
+        <v>0.2359357659588568</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1692038705801622</v>
       </c>
       <c r="M23">
-        <v>0.5182106105053634</v>
+        <v>1.522443730001612</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.507529941121078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5531538800766995</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.307993282276342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.236816305754274</v>
+        <v>1.225674352938142</v>
       </c>
       <c r="C24">
-        <v>0.1415974677393592</v>
+        <v>0.1782614112614596</v>
       </c>
       <c r="D24">
-        <v>0.1811782672332924</v>
+        <v>0.2649257136273633</v>
       </c>
       <c r="E24">
-        <v>0.1267819528491181</v>
+        <v>0.1657185890416919</v>
       </c>
       <c r="F24">
-        <v>1.024708961090013</v>
+        <v>0.6592365988369124</v>
       </c>
       <c r="G24">
-        <v>0.0008130607997757357</v>
+        <v>0.3364499987167875</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.976997945935977E-07</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1257951051592485</v>
+        <v>0.2967731828544942</v>
       </c>
       <c r="K24">
-        <v>1.245567503384422</v>
+        <v>0.2434709113733682</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1527542209211248</v>
       </c>
       <c r="M24">
-        <v>0.4432862835533271</v>
+        <v>1.312709337009039</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.419569475642191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4749238494395058</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.282813912228548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.010913056355065</v>
+        <v>1.011450874058198</v>
       </c>
       <c r="C25">
-        <v>0.1202298014101189</v>
+        <v>0.1499637019839071</v>
       </c>
       <c r="D25">
-        <v>0.1514100199358666</v>
+        <v>0.2237955814650405</v>
       </c>
       <c r="E25">
-        <v>0.1102885099701005</v>
+        <v>0.143285172596471</v>
       </c>
       <c r="F25">
-        <v>0.9669374537758699</v>
+        <v>0.6235061925041734</v>
       </c>
       <c r="G25">
-        <v>0.0008204226414373061</v>
+        <v>0.3251170500863623</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005447136800400543</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1143275140576989</v>
+        <v>0.2998798776251803</v>
       </c>
       <c r="K25">
-        <v>1.020590291324282</v>
+        <v>0.2536152913023955</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1349998042311782</v>
       </c>
       <c r="M25">
-        <v>0.3636324579426145</v>
+        <v>1.086543551010465</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.345757633967423</v>
+        <v>0.3907436234614821</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.2647770137782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8535949293627425</v>
+        <v>0.8486378634711116</v>
       </c>
       <c r="C2">
-        <v>0.1291068494564058</v>
+        <v>0.1382036607677293</v>
       </c>
       <c r="D2">
-        <v>0.1936228765317765</v>
+        <v>0.1984954317802732</v>
       </c>
       <c r="E2">
-        <v>0.1267873135393742</v>
+        <v>0.1280937628484651</v>
       </c>
       <c r="F2">
-        <v>0.5997523001744653</v>
+        <v>0.5769837580578496</v>
       </c>
       <c r="G2">
-        <v>0.3188627296919364</v>
+        <v>0.2842496105697592</v>
       </c>
       <c r="H2">
-        <v>0.001680527313396962</v>
+        <v>0.00148087671159447</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3034522342998898</v>
+        <v>0.3194715811360069</v>
       </c>
       <c r="K2">
-        <v>0.2626751656116824</v>
+        <v>0.2411679132424265</v>
       </c>
       <c r="L2">
-        <v>0.1218819662244215</v>
+        <v>0.1317369384331393</v>
       </c>
       <c r="M2">
-        <v>0.9198268978432225</v>
+        <v>0.05795748999440775</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1216796263740889</v>
       </c>
       <c r="O2">
-        <v>0.3288337672108881</v>
+        <v>0.93376567051655</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.25859455533562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3333284911879915</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.193593354917354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.746427964542022</v>
+        <v>0.7455406939980662</v>
       </c>
       <c r="C3">
-        <v>0.1149460048569608</v>
+        <v>0.1195659153469677</v>
       </c>
       <c r="D3">
-        <v>0.1732196389290408</v>
+        <v>0.177456836269954</v>
       </c>
       <c r="E3">
-        <v>0.1156019489530529</v>
+        <v>0.117032637736493</v>
       </c>
       <c r="F3">
-        <v>0.5851131586467275</v>
+        <v>0.5647559887999449</v>
       </c>
       <c r="G3">
-        <v>0.3158118917087975</v>
+        <v>0.2838530505595642</v>
       </c>
       <c r="H3">
-        <v>0.002864762621917594</v>
+        <v>0.002540986092634312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3066249092303082</v>
+        <v>0.320819911206911</v>
       </c>
       <c r="K3">
-        <v>0.2697397218651769</v>
+        <v>0.2485907980389932</v>
       </c>
       <c r="L3">
-        <v>0.112946704827074</v>
+        <v>0.1373483271745854</v>
       </c>
       <c r="M3">
-        <v>0.8066100816671451</v>
+        <v>0.05920003723763934</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1132133635958823</v>
       </c>
       <c r="O3">
-        <v>0.2868744812363317</v>
+        <v>0.8174080223252247</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.258481776190166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2903956821604297</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.198074044835707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6805030974488773</v>
+        <v>0.6820174326518611</v>
       </c>
       <c r="C4">
-        <v>0.1062347478827235</v>
+        <v>0.10819118984206</v>
       </c>
       <c r="D4">
-        <v>0.1607069145347282</v>
+        <v>0.1645752834731837</v>
       </c>
       <c r="E4">
-        <v>0.1087266407014695</v>
+        <v>0.1102372799633322</v>
       </c>
       <c r="F4">
-        <v>0.576802485944107</v>
+        <v>0.5578099050023582</v>
       </c>
       <c r="G4">
-        <v>0.3144882284993855</v>
+        <v>0.2841463841667462</v>
       </c>
       <c r="H4">
-        <v>0.003782381975897919</v>
+        <v>0.00336450741682276</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3089280796153844</v>
+        <v>0.3218340231951302</v>
       </c>
       <c r="K4">
-        <v>0.2745121410223916</v>
+        <v>0.2534889826428657</v>
       </c>
       <c r="L4">
-        <v>0.1074329020283855</v>
+        <v>0.1410351634867926</v>
       </c>
       <c r="M4">
-        <v>0.736947779717994</v>
+        <v>0.06048499365408944</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1079845967837514</v>
       </c>
       <c r="O4">
-        <v>0.2610961175583135</v>
+        <v>0.7458616476070858</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.260313828248769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2640300536153681</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.202382553045211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6536030575196321</v>
+        <v>0.6560726802652255</v>
       </c>
       <c r="C5">
-        <v>0.1026802678391903</v>
+        <v>0.1035727305904857</v>
       </c>
       <c r="D5">
-        <v>0.1556106977835725</v>
+        <v>0.1593341927357983</v>
       </c>
       <c r="E5">
-        <v>0.1059223350970271</v>
+        <v>0.1074665542194957</v>
       </c>
       <c r="F5">
-        <v>0.5735803684686971</v>
+        <v>0.5551153971945268</v>
       </c>
       <c r="G5">
-        <v>0.3140818587614618</v>
+        <v>0.284395400303282</v>
       </c>
       <c r="H5">
-        <v>0.004202209285361802</v>
+        <v>0.003741702226589427</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3099537122239937</v>
+        <v>0.322293066157556</v>
       </c>
       <c r="K5">
-        <v>0.2765631965704642</v>
+        <v>0.2555682318220107</v>
       </c>
       <c r="L5">
-        <v>0.1051783501501511</v>
+        <v>0.1425983129928294</v>
       </c>
       <c r="M5">
-        <v>0.7085189124817646</v>
+        <v>0.06113827299737551</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1058455592465535</v>
       </c>
       <c r="O5">
-        <v>0.2505856244782123</v>
+        <v>0.7166769897551575</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.261522886817488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2532831329558007</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.204516537298218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6491340945003401</v>
+        <v>0.6517609599876266</v>
       </c>
       <c r="C6">
-        <v>0.102089760851257</v>
+        <v>0.1028068420260695</v>
       </c>
       <c r="D6">
-        <v>0.1547646186547809</v>
+        <v>0.1584643872800342</v>
       </c>
       <c r="E6">
-        <v>0.1054565079759335</v>
+        <v>0.1070063655678766</v>
       </c>
       <c r="F6">
-        <v>0.5730551084337776</v>
+        <v>0.5546760464245608</v>
       </c>
       <c r="G6">
-        <v>0.31402226901821</v>
+        <v>0.2844444119671934</v>
       </c>
       <c r="H6">
-        <v>0.004274635215323841</v>
+        <v>0.003806796125416345</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3101292130359568</v>
+        <v>0.3223720252684217</v>
       </c>
       <c r="K6">
-        <v>0.2769101027275056</v>
+        <v>0.2559184451834042</v>
       </c>
       <c r="L6">
-        <v>0.1048035021610332</v>
+        <v>0.142861541961782</v>
       </c>
       <c r="M6">
-        <v>0.7037957375457182</v>
+        <v>0.06125453406868608</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1054898564169271</v>
       </c>
       <c r="O6">
-        <v>0.2488399767198359</v>
+        <v>0.7118290636257996</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.261751137131881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2514984081894198</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.204893345550005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6801404613550233</v>
+        <v>0.6817585710937806</v>
       </c>
       <c r="C7">
-        <v>0.1061868299885873</v>
+        <v>0.1079554957083815</v>
       </c>
       <c r="D7">
-        <v>0.1606381749626991</v>
+        <v>0.1647027068470379</v>
       </c>
       <c r="E7">
-        <v>0.1086888321178527</v>
+        <v>0.1102314699833435</v>
       </c>
       <c r="F7">
-        <v>0.5767583727183094</v>
+        <v>0.5569849558738085</v>
       </c>
       <c r="G7">
-        <v>0.3144822160849543</v>
+        <v>0.2861447687960279</v>
       </c>
       <c r="H7">
-        <v>0.003787860722124059</v>
+        <v>0.003372974551904495</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3089415619891014</v>
+        <v>0.3187092262081777</v>
       </c>
       <c r="K7">
-        <v>0.2745393760211705</v>
+        <v>0.2532145181530794</v>
       </c>
       <c r="L7">
-        <v>0.1074025281825755</v>
+        <v>0.1408906101583103</v>
       </c>
       <c r="M7">
-        <v>0.7365645488457346</v>
+        <v>0.06042914590519288</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1079163882547114</v>
       </c>
       <c r="O7">
-        <v>0.2609543943323089</v>
+        <v>0.7452760463994537</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.260328281673637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2638992354067895</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.200378078122625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8166669823453958</v>
+        <v>0.813440891687037</v>
       </c>
       <c r="C8">
-        <v>0.1242273245615593</v>
+        <v>0.1311741149628745</v>
       </c>
       <c r="D8">
-        <v>0.1865841535748984</v>
+        <v>0.1918994559412681</v>
       </c>
       <c r="E8">
-        <v>0.1229317199379061</v>
+        <v>0.1243883085691415</v>
       </c>
       <c r="F8">
-        <v>0.5945604234528332</v>
+        <v>0.5700500274287137</v>
       </c>
       <c r="G8">
-        <v>0.3176935743605682</v>
+        <v>0.2906687259513063</v>
       </c>
       <c r="H8">
-        <v>0.002048086450724851</v>
+        <v>0.001817450558438405</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3044710969091398</v>
+        <v>0.3098052592811271</v>
       </c>
       <c r="K8">
-        <v>0.2650189145941351</v>
+        <v>0.242681728220095</v>
       </c>
       <c r="L8">
-        <v>0.1188063600025444</v>
+        <v>0.1331454536830545</v>
       </c>
       <c r="M8">
-        <v>0.8808176537077941</v>
+        <v>0.05801318815912637</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1186385307416415</v>
       </c>
       <c r="O8">
-        <v>0.3143682447655536</v>
+        <v>0.8930222678468169</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.258151476525811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3185713081605144</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.188147033242558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.083616334833977</v>
+        <v>1.069735940472896</v>
       </c>
       <c r="C9">
-        <v>0.1594973639929549</v>
+        <v>0.1779075272419703</v>
       </c>
       <c r="D9">
-        <v>0.237629673950849</v>
+        <v>0.244841907710537</v>
       </c>
       <c r="E9">
-        <v>0.150836490683794</v>
+        <v>0.1520347288643293</v>
       </c>
       <c r="F9">
-        <v>0.6351267386531703</v>
+        <v>0.6032369399056492</v>
       </c>
       <c r="G9">
-        <v>0.3285938907520887</v>
+        <v>0.2966937981978006</v>
       </c>
       <c r="H9">
-        <v>0.0002411280002878602</v>
+        <v>0.000206359726293126</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2986268998611337</v>
+        <v>0.3048813660093543</v>
       </c>
       <c r="K9">
-        <v>0.2499417411065359</v>
+        <v>0.2259401798035832</v>
       </c>
       <c r="L9">
-        <v>0.1409851236367388</v>
+        <v>0.1204793813804343</v>
       </c>
       <c r="M9">
-        <v>1.162741908482985</v>
+        <v>0.05772236568303057</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.139595442318253</v>
       </c>
       <c r="O9">
-        <v>0.4190821533555962</v>
+        <v>1.182806760569093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.269701778780615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4257721357339008</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.184525327874141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.282196969054553</v>
+        <v>1.260850744871817</v>
       </c>
       <c r="C10">
-        <v>0.1850663329798579</v>
+        <v>0.2107274074820396</v>
       </c>
       <c r="D10">
-        <v>0.2696517987879332</v>
+        <v>0.2793565716699504</v>
       </c>
       <c r="E10">
-        <v>0.1647942306919177</v>
+        <v>0.1659817438243323</v>
       </c>
       <c r="F10">
-        <v>0.6589136117907017</v>
+        <v>0.6173367531908625</v>
       </c>
       <c r="G10">
-        <v>0.3346543638372879</v>
+        <v>0.3116767027698657</v>
       </c>
       <c r="H10">
-        <v>0.0002014786836435078</v>
+        <v>0.0002016258352175448</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2936785977965073</v>
+        <v>0.2840142497679352</v>
       </c>
       <c r="K10">
-        <v>0.2386368713614786</v>
+        <v>0.2118714448963814</v>
       </c>
       <c r="L10">
-        <v>0.1496119240248035</v>
+        <v>0.1110569964616825</v>
       </c>
       <c r="M10">
-        <v>1.37130317105715</v>
+        <v>0.05870076284419845</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.147209804147856</v>
       </c>
       <c r="O10">
-        <v>0.4875374070088156</v>
+        <v>1.395767174884554</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.272648785583925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.495970164999946</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.165242189176581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.3960257386764</v>
+        <v>1.375562266506847</v>
       </c>
       <c r="C11">
-        <v>0.1939731496361077</v>
+        <v>0.2166755172481913</v>
       </c>
       <c r="D11">
-        <v>0.2367684315631209</v>
+        <v>0.2477318048543395</v>
       </c>
       <c r="E11">
-        <v>0.1198999597986372</v>
+        <v>0.1210425238027071</v>
       </c>
       <c r="F11">
-        <v>0.5876124277124504</v>
+        <v>0.542151896275584</v>
       </c>
       <c r="G11">
-        <v>0.2953133929976559</v>
+        <v>0.3000331781565322</v>
       </c>
       <c r="H11">
-        <v>0.0187602841696588</v>
+        <v>0.01875737493091023</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2700561726381281</v>
+        <v>0.2381796749313843</v>
       </c>
       <c r="K11">
-        <v>0.2124429837405479</v>
+        <v>0.1869426841019788</v>
       </c>
       <c r="L11">
-        <v>0.09948121039014524</v>
+        <v>0.1008666572762209</v>
       </c>
       <c r="M11">
-        <v>1.481455212184841</v>
+        <v>0.05142576030261736</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09740943242476163</v>
       </c>
       <c r="O11">
-        <v>0.4456161168308626</v>
+        <v>1.502675679138349</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.139955235738995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4533680325692018</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.023741463301761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.45123544524796</v>
+        <v>1.432956831763676</v>
       </c>
       <c r="C12">
-        <v>0.1960912016535872</v>
+        <v>0.2153311935535811</v>
       </c>
       <c r="D12">
-        <v>0.2043117079146128</v>
+        <v>0.2149329511750864</v>
       </c>
       <c r="E12">
-        <v>0.08692736304745452</v>
+        <v>0.08783754036835489</v>
       </c>
       <c r="F12">
-        <v>0.525426202725086</v>
+        <v>0.4819849643522787</v>
       </c>
       <c r="G12">
-        <v>0.262385070889799</v>
+        <v>0.2792018923370634</v>
       </c>
       <c r="H12">
-        <v>0.05741944758960926</v>
+        <v>0.05741922021444879</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2517576124815903</v>
+        <v>0.2177560028214529</v>
       </c>
       <c r="K12">
-        <v>0.1939499911368383</v>
+        <v>0.1712287306916469</v>
       </c>
       <c r="L12">
-        <v>0.07154116930217747</v>
+        <v>0.09532848931573934</v>
       </c>
       <c r="M12">
-        <v>1.531170591093996</v>
+        <v>0.04563301408164122</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07009807477683161</v>
       </c>
       <c r="O12">
-        <v>0.3977740540054384</v>
+        <v>1.549240244941871</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.031885762557224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.404578865289885</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9211940209375342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.463967373291894</v>
+        <v>1.448700636437053</v>
       </c>
       <c r="C13">
-        <v>0.1930752440339063</v>
+        <v>0.208777044640442</v>
       </c>
       <c r="D13">
-        <v>0.1704870698242757</v>
+        <v>0.1792958500310533</v>
       </c>
       <c r="E13">
-        <v>0.06127333584130668</v>
+        <v>0.06184183426241141</v>
       </c>
       <c r="F13">
-        <v>0.4665283725777485</v>
+        <v>0.430404931939421</v>
       </c>
       <c r="G13">
-        <v>0.2322818576561758</v>
+        <v>0.2460534844505204</v>
       </c>
       <c r="H13">
-        <v>0.1131590212841758</v>
+        <v>0.1131632917736738</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2363494784504283</v>
+        <v>0.2122604376168695</v>
       </c>
       <c r="K13">
-        <v>0.1800682885054385</v>
+        <v>0.1614307119126437</v>
       </c>
       <c r="L13">
-        <v>0.05887139965249111</v>
+        <v>0.09240448328326689</v>
       </c>
       <c r="M13">
-        <v>1.536739612466533</v>
+        <v>0.04093759208084791</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05820508901982996</v>
       </c>
       <c r="O13">
-        <v>0.3429637319734482</v>
+        <v>1.552121708389421</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9357688699901701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3485571862083106</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8434612305514406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.453594745094108</v>
+        <v>1.440804663768972</v>
       </c>
       <c r="C14">
-        <v>0.1886491037663944</v>
+        <v>0.201833994164204</v>
       </c>
       <c r="D14">
-        <v>0.146691539884003</v>
+        <v>0.153757220255855</v>
       </c>
       <c r="E14">
-        <v>0.04779054882013867</v>
+        <v>0.04813773242143071</v>
       </c>
       <c r="F14">
-        <v>0.4275142920228348</v>
+        <v>0.3982024489199887</v>
       </c>
       <c r="G14">
-        <v>0.2128512758856971</v>
+        <v>0.2191633667406876</v>
       </c>
       <c r="H14">
-        <v>0.1625135659205199</v>
+        <v>0.1625177488559899</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2270193536096059</v>
+        <v>0.2132480154420122</v>
       </c>
       <c r="K14">
-        <v>0.1726372295036285</v>
+        <v>0.1570954607713482</v>
       </c>
       <c r="L14">
-        <v>0.05900990106579584</v>
+        <v>0.09132869936944665</v>
       </c>
       <c r="M14">
-        <v>1.520608643316507</v>
+        <v>0.03825297250434367</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05885736178829504</v>
       </c>
       <c r="O14">
-        <v>0.3021104024625743</v>
+        <v>1.534302984260762</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8749742362778221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3067657397867265</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7995940939148198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.441809927260266</v>
+        <v>1.429789909300098</v>
       </c>
       <c r="C15">
-        <v>0.1864784140483238</v>
+        <v>0.1990116215829687</v>
       </c>
       <c r="D15">
-        <v>0.1403955344135284</v>
+        <v>0.1468303140174783</v>
       </c>
       <c r="E15">
-        <v>0.04506939062813053</v>
+        <v>0.04537327732996932</v>
       </c>
       <c r="F15">
-        <v>0.4183693987245718</v>
+        <v>0.3914690351517507</v>
       </c>
       <c r="G15">
-        <v>0.208530761884866</v>
+        <v>0.2109797926250963</v>
       </c>
       <c r="H15">
-        <v>0.1750302541603475</v>
+        <v>0.1750329446117007</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2252866441115629</v>
+        <v>0.2155905487176604</v>
       </c>
       <c r="K15">
-        <v>0.1716380888911146</v>
+        <v>0.1569821418545061</v>
       </c>
       <c r="L15">
-        <v>0.06016441797444827</v>
+        <v>0.09142755876538411</v>
       </c>
       <c r="M15">
-        <v>1.507116644162608</v>
+        <v>0.03779879255856855</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06013988967924178</v>
       </c>
       <c r="O15">
-        <v>0.2905218086486769</v>
+        <v>1.520488215692893</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8621508217312481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2948957578043263</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7926994222821975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.352725447812929</v>
+        <v>1.342368250447748</v>
       </c>
       <c r="C16">
-        <v>0.1760967423985988</v>
+        <v>0.1880075292614549</v>
       </c>
       <c r="D16">
-        <v>0.1344133165043644</v>
+        <v>0.1389887962677108</v>
       </c>
       <c r="E16">
-        <v>0.04495565109691047</v>
+        <v>0.04531048766852042</v>
       </c>
       <c r="F16">
-        <v>0.4202988125783307</v>
+        <v>0.4002703957169444</v>
       </c>
       <c r="G16">
-        <v>0.2117417345515804</v>
+        <v>0.197226151299347</v>
       </c>
       <c r="H16">
-        <v>0.1623566586430343</v>
+        <v>0.1623403470793647</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2302441968348177</v>
+        <v>0.2368198556379575</v>
       </c>
       <c r="K16">
-        <v>0.1787515017711563</v>
+        <v>0.165497637111141</v>
       </c>
       <c r="L16">
-        <v>0.05924407602195281</v>
+        <v>0.09492145100104654</v>
       </c>
       <c r="M16">
-        <v>1.415397607866197</v>
+        <v>0.03939311033314929</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05938626131752045</v>
       </c>
       <c r="O16">
-        <v>0.2738535494936229</v>
+        <v>1.429357788013704</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8791477167505803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2776988021276523</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.826176683606775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.29013658349632</v>
+        <v>1.279904148662581</v>
       </c>
       <c r="C17">
-        <v>0.1704985011553077</v>
+        <v>0.1829673837704178</v>
       </c>
       <c r="D17">
-        <v>0.1421191112362408</v>
+        <v>0.1462624473730187</v>
       </c>
       <c r="E17">
-        <v>0.05121801979001184</v>
+        <v>0.05167336423730795</v>
       </c>
       <c r="F17">
-        <v>0.4422663900371262</v>
+        <v>0.4236702247621338</v>
       </c>
       <c r="G17">
-        <v>0.2244890391723402</v>
+        <v>0.2022933157381814</v>
       </c>
       <c r="H17">
-        <v>0.1246322417963626</v>
+        <v>0.1245982791671736</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2390317315752668</v>
+        <v>0.2530668238138745</v>
       </c>
       <c r="K17">
-        <v>0.1881870176483051</v>
+        <v>0.1744510693600496</v>
       </c>
       <c r="L17">
-        <v>0.05701727159266667</v>
+        <v>0.0985235210366513</v>
       </c>
       <c r="M17">
-        <v>1.353837340988349</v>
+        <v>0.04187956363038836</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05710846544316528</v>
       </c>
       <c r="O17">
-        <v>0.2822943257798443</v>
+        <v>1.368800002694428</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.924460653761173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.286223885940764</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8745776521473658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.243464548521786</v>
+        <v>1.231883515691038</v>
       </c>
       <c r="C18">
-        <v>0.1683729484023502</v>
+        <v>0.1828658092778994</v>
       </c>
       <c r="D18">
-        <v>0.1636500266500178</v>
+        <v>0.1681863699456301</v>
       </c>
       <c r="E18">
-        <v>0.06761887196707406</v>
+        <v>0.06820313844393588</v>
       </c>
       <c r="F18">
-        <v>0.4856603514434283</v>
+        <v>0.4652012932502387</v>
       </c>
       <c r="G18">
-        <v>0.2477250479759903</v>
+        <v>0.220333831563039</v>
       </c>
       <c r="H18">
-        <v>0.07180381609059339</v>
+        <v>0.07176406882012287</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2524430237142994</v>
+        <v>0.269021961767919</v>
       </c>
       <c r="K18">
-        <v>0.2013059130938366</v>
+        <v>0.1856960955784484</v>
       </c>
       <c r="L18">
-        <v>0.06129226764565843</v>
+        <v>0.1029759685263363</v>
       </c>
       <c r="M18">
-        <v>1.311364371039105</v>
+        <v>0.04561535947788187</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06112021927661893</v>
       </c>
       <c r="O18">
-        <v>0.3145458785551369</v>
+        <v>1.328209216990416</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.00175024930671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3190995271440329</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9468130621457647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213350067868447</v>
+        <v>1.19930468257806</v>
       </c>
       <c r="C19">
-        <v>0.1692113124271231</v>
+        <v>0.1869287423347572</v>
       </c>
       <c r="D19">
-        <v>0.1966903480394961</v>
+        <v>0.2022043091669588</v>
       </c>
       <c r="E19">
-        <v>0.0969743172083426</v>
+        <v>0.09771647187999477</v>
       </c>
       <c r="F19">
-        <v>0.5460958808659342</v>
+        <v>0.5214052961153754</v>
       </c>
       <c r="G19">
-        <v>0.2792383901101445</v>
+        <v>0.2474180653977172</v>
       </c>
       <c r="H19">
-        <v>0.02646396556396269</v>
+        <v>0.02643352782001074</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.269231085166453</v>
+        <v>0.2852778948183996</v>
       </c>
       <c r="K19">
-        <v>0.2174873254087881</v>
+        <v>0.1989003139391983</v>
       </c>
       <c r="L19">
-        <v>0.08223174072681516</v>
+        <v>0.1080787794805449</v>
       </c>
       <c r="M19">
-        <v>1.287583560913816</v>
+        <v>0.05045139586400538</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08155670006124893</v>
       </c>
       <c r="O19">
-        <v>0.3658291683185979</v>
+        <v>1.307000502561692</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.103711718843442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3714479082105413</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.03793224066365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.230157741505451</v>
+        <v>1.210482509909951</v>
       </c>
       <c r="C20">
-        <v>0.1783405780510208</v>
+        <v>0.2027211171029819</v>
       </c>
       <c r="D20">
-        <v>0.2610003197916342</v>
+        <v>0.2693002569524623</v>
       </c>
       <c r="E20">
-        <v>0.1608503867272475</v>
+        <v>0.1619168891633471</v>
       </c>
       <c r="F20">
-        <v>0.6519773254285042</v>
+        <v>0.6157645801622138</v>
       </c>
       <c r="G20">
-        <v>0.3326173509450356</v>
+        <v>0.2999409723294733</v>
       </c>
       <c r="H20">
-        <v>0.0001198984257895219</v>
+        <v>0.0001190122542649164</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2947289046387667</v>
+        <v>0.2991112264228235</v>
       </c>
       <c r="K20">
-        <v>0.2413175544179005</v>
+        <v>0.2163035810750706</v>
       </c>
       <c r="L20">
-        <v>0.1470214135650991</v>
+        <v>0.1137363357860757</v>
       </c>
       <c r="M20">
-        <v>1.316613229379328</v>
+        <v>0.05863743827719325</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1450179921829999</v>
       </c>
       <c r="O20">
-        <v>0.4692057362260869</v>
+        <v>1.340613406565154</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.270410797246171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4771260272129609</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.175993758858084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.378539913090862</v>
+        <v>1.354217602051392</v>
       </c>
       <c r="C21">
-        <v>0.1984478325570365</v>
+        <v>0.2257326538767757</v>
       </c>
       <c r="D21">
-        <v>0.2943810870610122</v>
+        <v>0.3089459685426732</v>
       </c>
       <c r="E21">
-        <v>0.181758895208759</v>
+        <v>0.1835555363089796</v>
       </c>
       <c r="F21">
-        <v>0.6868353100522242</v>
+        <v>0.6270011933986765</v>
       </c>
       <c r="G21">
-        <v>0.3462724325292825</v>
+        <v>0.3614623920211244</v>
       </c>
       <c r="H21">
-        <v>0.0002275904339432699</v>
+        <v>0.0002013565317000587</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2955950498168605</v>
+        <v>0.2425478576789217</v>
       </c>
       <c r="K21">
-        <v>0.2375284042788657</v>
+        <v>0.2042384448281602</v>
       </c>
       <c r="L21">
-        <v>0.1654081916816708</v>
+        <v>0.1063822104442984</v>
       </c>
       <c r="M21">
-        <v>1.474046306505159</v>
+        <v>0.05932128663430269</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1617469822727244</v>
       </c>
       <c r="O21">
-        <v>0.5350891394489707</v>
+        <v>1.498237881948683</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.301521494091787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5448911961491874</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.149285711332183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.476919721354648</v>
+        <v>1.449855543025421</v>
       </c>
       <c r="C22">
-        <v>0.2114360819932557</v>
+        <v>0.2400795431990161</v>
       </c>
       <c r="D22">
-        <v>0.3133776200965599</v>
+        <v>0.3324188626197753</v>
       </c>
       <c r="E22">
-        <v>0.1920963280798205</v>
+        <v>0.1944497816152051</v>
       </c>
       <c r="F22">
-        <v>0.7054231733394687</v>
+        <v>0.6291780245453751</v>
       </c>
       <c r="G22">
-        <v>0.353283839706755</v>
+        <v>0.4071938218133795</v>
       </c>
       <c r="H22">
-        <v>0.000620973526097357</v>
+        <v>0.0005386690135698036</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2952423487174087</v>
+        <v>0.2123725778788135</v>
       </c>
       <c r="K22">
-        <v>0.2342143920013164</v>
+        <v>0.1953829072102877</v>
       </c>
       <c r="L22">
-        <v>0.1735501704015832</v>
+        <v>0.1015264255087587</v>
       </c>
       <c r="M22">
-        <v>1.577858064904945</v>
+        <v>0.05951934635450051</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1688142288750569</v>
       </c>
       <c r="O22">
-        <v>0.5738465112470763</v>
+        <v>1.601655545827214</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.315866629191305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5848082155896321</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.123713468256497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.424403166085028</v>
+        <v>1.398537599994796</v>
       </c>
       <c r="C23">
-        <v>0.204503086238617</v>
+        <v>0.2329198665167667</v>
       </c>
       <c r="D23">
-        <v>0.3032333375279421</v>
+        <v>0.3192986925768082</v>
       </c>
       <c r="E23">
-        <v>0.1865766564063946</v>
+        <v>0.1885298906611297</v>
       </c>
       <c r="F23">
-        <v>0.6954235754790332</v>
+        <v>0.6300040368403685</v>
       </c>
       <c r="G23">
-        <v>0.3494763248023318</v>
+        <v>0.3760337765636734</v>
       </c>
       <c r="H23">
-        <v>0.0003877184935303646</v>
+        <v>0.0003408203165133905</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2953928649298234</v>
+        <v>0.2319429820371468</v>
       </c>
       <c r="K23">
-        <v>0.2359357659588568</v>
+        <v>0.2007661982065549</v>
       </c>
       <c r="L23">
-        <v>0.1692038705801622</v>
+        <v>0.1042973918368677</v>
       </c>
       <c r="M23">
-        <v>1.522443730001612</v>
+        <v>0.05969268677639228</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1651353668006053</v>
       </c>
       <c r="O23">
-        <v>0.5531538800766995</v>
+        <v>1.546978190279731</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.307993282276342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5634599601812837</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.142267951124566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.225674352938142</v>
+        <v>1.205793857477033</v>
       </c>
       <c r="C24">
-        <v>0.1782614112614596</v>
+        <v>0.2029579170994253</v>
       </c>
       <c r="D24">
-        <v>0.2649257136273633</v>
+        <v>0.2733177678277912</v>
       </c>
       <c r="E24">
-        <v>0.1657185890416919</v>
+        <v>0.1668040360851606</v>
       </c>
       <c r="F24">
-        <v>0.6592365988369124</v>
+        <v>0.6226078736808418</v>
       </c>
       <c r="G24">
-        <v>0.3364499987167875</v>
+        <v>0.3029761491175407</v>
       </c>
       <c r="H24">
-        <v>2.976997945935977E-07</v>
+        <v>2.045697833352733E-08</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2967731828544942</v>
+        <v>0.3014315559117051</v>
       </c>
       <c r="K24">
-        <v>0.2434709113733682</v>
+        <v>0.2181043795437425</v>
       </c>
       <c r="L24">
-        <v>0.1527542209211248</v>
+        <v>0.1144504544881322</v>
       </c>
       <c r="M24">
-        <v>1.312709337009039</v>
+        <v>0.05926397768787872</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1506795469113129</v>
       </c>
       <c r="O24">
-        <v>0.4749238494395058</v>
+        <v>1.336952253200934</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.282813912228548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4829635592963655</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.187323392512184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.011450874058198</v>
+        <v>1.000414518471302</v>
       </c>
       <c r="C25">
-        <v>0.1499637019839071</v>
+        <v>0.1654580470531357</v>
       </c>
       <c r="D25">
-        <v>0.2237955814650405</v>
+        <v>0.2301875143479748</v>
       </c>
       <c r="E25">
-        <v>0.143285172596471</v>
+        <v>0.1445032312963477</v>
       </c>
       <c r="F25">
-        <v>0.6235061925041734</v>
+        <v>0.5948264651853705</v>
       </c>
       <c r="G25">
-        <v>0.3251170500863623</v>
+        <v>0.2916614588314985</v>
       </c>
       <c r="H25">
-        <v>0.0005447136800400543</v>
+        <v>0.0004731712089351969</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2998798776251803</v>
+        <v>0.3102452387186929</v>
       </c>
       <c r="K25">
-        <v>0.2536152913023955</v>
+        <v>0.2305555528419951</v>
       </c>
       <c r="L25">
-        <v>0.1349998042311782</v>
+        <v>0.123870951620626</v>
       </c>
       <c r="M25">
-        <v>1.086543551010465</v>
+        <v>0.05747480282395401</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1339979320402875</v>
       </c>
       <c r="O25">
-        <v>0.3907436234614821</v>
+        <v>1.104732146287972</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.2647770137782</v>
+        <v>0.3967356176184822</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.186843300195889</v>
       </c>
     </row>
   </sheetData>
